--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_20-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_20-26.xlsx
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
   </si>
   <si>
     <t>FLUREST N 20 TABS</t>
@@ -2095,17 +2098,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>16</v>
+        <v>175.22999999999999</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2121,17 +2124,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2139,7 +2142,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2147,17 +2150,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2165,7 +2168,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2173,17 +2176,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>71.5</v>
+        <v>12</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2199,17 +2202,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>67</v>
+        <v>71.5</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2225,17 +2228,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2251,17 +2254,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2283,11 +2286,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2303,17 +2306,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2329,17 +2332,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2355,13 +2358,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2381,17 +2384,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2407,7 +2410,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2417,7 +2420,7 @@
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2433,13 +2436,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2459,13 +2462,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2491,7 +2494,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2517,7 +2520,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>36.5</v>
+        <v>350</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2537,13 +2540,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>57</v>
+        <v>36.5</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2563,13 +2566,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2589,17 +2592,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2615,17 +2618,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2641,17 +2644,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2667,13 +2670,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2693,17 +2696,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2719,17 +2722,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2737,7 +2740,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2745,17 +2748,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2771,17 +2774,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>-135</v>
+        <v>19</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2789,7 +2792,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2797,17 +2800,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>16</v>
+        <v>-135</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2815,7 +2818,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2823,17 +2826,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2849,17 +2852,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2875,17 +2878,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2901,17 +2904,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2927,17 +2930,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2953,17 +2956,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2979,17 +2982,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3005,17 +3008,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3031,13 +3034,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3057,17 +3060,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>28.199999999999999</v>
+        <v>58</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3075,7 +3078,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3083,13 +3086,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3109,17 +3112,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3135,13 +3138,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3167,11 +3170,11 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3187,13 +3190,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3213,17 +3216,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3245,7 +3248,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3265,13 +3268,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3291,17 +3294,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3317,17 +3320,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3343,13 +3346,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3361,7 +3364,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3369,17 +3372,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3395,17 +3398,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3413,7 +3416,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3421,17 +3424,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3447,17 +3450,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3473,13 +3476,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3499,13 +3502,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3517,7 +3520,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3525,13 +3528,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3543,7 +3546,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3551,13 +3554,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3569,7 +3572,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3577,13 +3580,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3603,13 +3606,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3621,7 +3624,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3629,17 +3632,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3647,7 +3650,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3655,17 +3658,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>45</v>
+        <v>11.67</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3681,17 +3684,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3699,7 +3702,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3707,17 +3710,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3725,7 +3728,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3733,17 +3736,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3751,7 +3754,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3759,17 +3762,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3785,17 +3788,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3811,17 +3814,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>30</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3837,17 +3840,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3863,13 +3866,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3889,17 +3892,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3915,17 +3918,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3947,7 +3950,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3967,13 +3970,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -3993,13 +3996,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -4025,11 +4028,11 @@
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4045,13 +4048,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4071,51 +4074,77 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" ht="26.25" customHeight="1">
-      <c r="K120" s="10">
-        <v>5938.0200000000004</v>
-      </c>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" ht="25.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>117</v>
+      </c>
+      <c t="s" r="B120" s="7">
+        <v>159</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c t="s" r="H120" s="8">
         <v>160</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c t="s" r="F121" s="12">
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="9">
+        <v>20</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c t="s" r="N120" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="K121" s="10">
+        <v>6113.25</v>
+      </c>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="11">
         <v>161</v>
       </c>
-      <c r="G121" s="12"/>
-      <c r="H121" s="13"/>
-      <c t="s" r="I121" s="14">
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c t="s" r="F122" s="12">
         <v>162</v>
       </c>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="13"/>
+      <c t="s" r="I122" s="14">
+        <v>163</v>
+      </c>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="359">
+  <mergeCells count="362">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4471,10 +4500,13 @@
     <mergeCell ref="B119:G119"/>
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
-    <mergeCell ref="K120:N120"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="I121:N121"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="K121:N121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="I122:N122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
